--- a/ch.bfh.btx8081.w2013.blue/doc/task09and10/task9&10_v2.0.2.xlsx
+++ b/ch.bfh.btx8081.w2013.blue/doc/task09and10/task9&10_v2.0.2.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1035" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14220" windowHeight="3720"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual" concurrentCalc="0"/>
+  <oleSize ref="A3:I4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -317,6 +318,12 @@
   </si>
   <si>
     <t>35h</t>
+  </si>
+  <si>
+    <t>When the patient denies drugs the doctor can enter when the patient does it and what drug. This will then be visible in the patientview.</t>
+  </si>
+  <si>
+    <t>If the patient must be referred, the doctor can click on the referral button and enter information about: during time, diagnosis, external clinic or doctor, name of the doctor, is it a FU or a normal referral,… after click on the button "send referral" the input will be writen to a txt. file. The referral is also visible in the patientview.</t>
   </si>
 </sst>
 </file>
@@ -747,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,14 +822,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
@@ -835,14 +844,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
@@ -900,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1373,7 @@
         <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1572,7 +1583,7 @@
         <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>

--- a/ch.bfh.btx8081.w2013.blue/doc/task09and10/task9&10_v2.0.2.xlsx
+++ b/ch.bfh.btx8081.w2013.blue/doc/task09and10/task9&10_v2.0.2.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14220" windowHeight="3720"/>
+    <workbookView xWindow="520" yWindow="680" windowWidth="28560" windowHeight="14920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="time schedule (quick and dirty)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" concurrentCalc="0"/>
-  <oleSize ref="A3:I4"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -44,21 +44,6 @@
     <t>medium</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>40h</t>
   </si>
   <si>
@@ -77,36 +62,12 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
-    <t>UI, Controller</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>Main Window</t>
-  </si>
-  <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -188,15 +149,9 @@
     <t>Skeletal Structure</t>
   </si>
   <si>
-    <t>Creating Person/Case Class and design the relation in between.</t>
-  </si>
-  <si>
     <t>Event Interface</t>
   </si>
   <si>
-    <t>Create the event interface. Implement in previously designed Case Class.</t>
-  </si>
-  <si>
     <t>Realizing the Alert Class</t>
   </si>
   <si>
@@ -206,12 +161,6 @@
     <t>Creating a Countdown Class for the alert.</t>
   </si>
   <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>Creating a WebSurface for the first test of our Software.</t>
-  </si>
-  <si>
     <t>Functional Test of our new Software</t>
   </si>
   <si>
@@ -242,9 +191,6 @@
     <t>Patrick Hirschi</t>
   </si>
   <si>
-    <t>Rene Vielgut</t>
-  </si>
-  <si>
     <t>Referral Class</t>
   </si>
   <si>
@@ -269,9 +215,6 @@
     <t>Create the Address Class that is used in our Person class.</t>
   </si>
   <si>
-    <t>Create the Clinic Class that is used in our Person class.</t>
-  </si>
-  <si>
     <t>Denial Class</t>
   </si>
   <si>
@@ -281,36 +224,18 @@
     <t>Implementation</t>
   </si>
   <si>
-    <t>Implement Relations to other integrated classes, such as Person and Case.</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>E-Mail Notifier</t>
-  </si>
-  <si>
     <t>Treatment Class</t>
   </si>
   <si>
     <t>Medication Class</t>
   </si>
   <si>
-    <t xml:space="preserve">Validator Class </t>
-  </si>
-  <si>
     <t>Create Treatment Class and implement the Event Interface</t>
   </si>
   <si>
     <t>Create Medication Class (inherited from Treatment Class)</t>
   </si>
   <si>
-    <t>Create Data  Validator Class</t>
-  </si>
-  <si>
-    <t>Implement in all other classes</t>
-  </si>
-  <si>
     <t>When the patient is aggressive, the doctor can release the alert in the mobile app iDoctor. He has 5 seconds time to stop the alert, if it is a false alert. After this 5 seconds the other staff and the policestation will receive a message. At the end the doctor is able to record an entry in the patient document about the incident.</t>
   </si>
   <si>
@@ -324,6 +249,75 @@
   </si>
   <si>
     <t>If the patient must be referred, the doctor can click on the referral button and enter information about: during time, diagnosis, external clinic or doctor, name of the doctor, is it a FU or a normal referral,… after click on the button "send referral" the input will be writen to a txt. file. The referral is also visible in the patientview.</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating GUI (indexView, alertView) </t>
+  </si>
+  <si>
+    <t>Event interface for further classes.</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>GUI (index,alert)</t>
+  </si>
+  <si>
+    <t>GUI (referral)</t>
+  </si>
+  <si>
+    <t>Creating GUI (referral)</t>
+  </si>
+  <si>
+    <t>GUI (denial)</t>
+  </si>
+  <si>
+    <t>Creating GUI (denial)</t>
+  </si>
+  <si>
+    <t>Testing the alert class</t>
+  </si>
+  <si>
+    <t>Create the Clinic Class that is used in Person and Denial class.</t>
+  </si>
+  <si>
+    <t>DatabaseHandler (Medication and Treatment)</t>
+  </si>
+  <si>
+    <t>Testing the Treatment class</t>
+  </si>
+  <si>
+    <t>Test of medication implementation via Denial and Treatment classes</t>
+  </si>
+  <si>
+    <t>GUI-Test (klicking, sliding, logic,...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DatabaseHandler</t>
+  </si>
+  <si>
+    <t>Create a DatabaseHandler to handle persistent data</t>
+  </si>
+  <si>
+    <t>Create Packages and structure of the application</t>
+  </si>
+  <si>
+    <t>GUI (Person)</t>
+  </si>
+  <si>
+    <t>Creating GUI (Person)</t>
+  </si>
+  <si>
+    <t>René Vielgut</t>
+  </si>
+  <si>
+    <t>Total (exkl. Test)</t>
   </si>
 </sst>
 </file>
@@ -363,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -410,8 +410,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,33 +459,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+  <cellStyles count="53">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -754,28 +910,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -784,109 +940,109 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="135" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="112">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="73" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -909,33 +1065,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -944,28 +1101,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -973,477 +1130,528 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1.3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
       <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4">
         <v>20</v>
       </c>
-      <c r="J4">
-        <f>SUM(I4:I4)</f>
-        <v>20</v>
-      </c>
       <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1.4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>7</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.3</v>
-      </c>
-      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="L9" s="9">
+        <f>SUM(J2+J3+J4+J5+J6+J7)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="6" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="28">
+      <c r="A11">
+        <v>2.1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28">
+      <c r="A13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>2.4</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="42">
+      <c r="A15">
+        <v>2.5</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10">
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>2.6</v>
+      </c>
+      <c r="B16">
         <v>6</v>
       </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.4</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28">
+      <c r="A17">
+        <v>2.7</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.5</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.6</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
-      <c r="I13">
-        <v>18</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.7</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2.1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-      <c r="I15">
-        <v>30</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="I16">
-        <v>20</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1455,65 +1663,65 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -1528,45 +1736,27 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2.6</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
         <v>24</v>
       </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L19" s="9">
+        <f>SUM(J11+J12+J13+J14+J15+J16+J17)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="6" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="28">
       <c r="A21">
         <v>3.1</v>
       </c>
@@ -1574,34 +1764,31 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I21">
-        <v>30</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28">
       <c r="A22">
         <v>3.2</v>
       </c>
@@ -1609,34 +1796,31 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="28">
       <c r="A23">
         <v>3.3</v>
       </c>
@@ -1644,34 +1828,31 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s">
         <v>24</v>
       </c>
-      <c r="F23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="I23">
-        <v>20</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" ht="28">
       <c r="A24">
         <v>3.4</v>
       </c>
@@ -1679,34 +1860,31 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" ht="28">
       <c r="A25">
         <v>3.5</v>
       </c>
@@ -1714,363 +1892,119 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
-        <v>4.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>3.7</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="I26">
-        <v>6</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>4.2</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
       <c r="H27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>6</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4.3</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
-      <c r="I28">
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <v>10</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>4.5</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" t="s">
         <v>24</v>
       </c>
-      <c r="F30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>4.7</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="K37">
-        <v>8.75</v>
-      </c>
-      <c r="L37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="K38">
-        <v>70</v>
-      </c>
-      <c r="L38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39">
-        <v>6</v>
-      </c>
-      <c r="L39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="K40">
-        <v>1.75</v>
-      </c>
-      <c r="L40" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K15:K19 K21:K27 K2:K12">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="not started">
+      <formula>NOT(ISERROR(SEARCH("not started",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="finished">
+      <formula>NOT(ISERROR(SEARCH("finished",K2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K14">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="not started">
+      <formula>NOT(ISERROR(SEARCH("not started",K13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="finished">
+      <formula>NOT(ISERROR(SEARCH("finished",K13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="not started">
+      <formula>NOT(ISERROR(SEARCH("not started",K20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="finished">
+      <formula>NOT(ISERROR(SEARCH("finished",K20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2079,4 +2013,111 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>8.75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15">
+      <c r="K4">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="K6">
+        <v>1.75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/ch.bfh.btx8081.w2013.blue/doc/task09and10/task9&10_v2.0.2.xlsx
+++ b/ch.bfh.btx8081.w2013.blue/doc/task09and10/task9&10_v2.0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="680" windowWidth="28560" windowHeight="14920" activeTab="1"/>
+    <workbookView xWindow="520" yWindow="680" windowWidth="28560" windowHeight="14920"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +44,6 @@
     <t>medium</t>
   </si>
   <si>
-    <t>40h</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>release alert</t>
   </si>
   <si>
-    <t>data validation</t>
-  </si>
-  <si>
     <t>denial handling</t>
   </si>
   <si>
@@ -239,12 +233,6 @@
     <t>When the patient is aggressive, the doctor can release the alert in the mobile app iDoctor. He has 5 seconds time to stop the alert, if it is a false alert. After this 5 seconds the other staff and the policestation will receive a message. At the end the doctor is able to record an entry in the patient document about the incident.</t>
   </si>
   <si>
-    <t>32h</t>
-  </si>
-  <si>
-    <t>35h</t>
-  </si>
-  <si>
     <t>When the patient denies drugs the doctor can enter when the patient does it and what drug. This will then be visible in the patientview.</t>
   </si>
   <si>
@@ -318,6 +306,12 @@
   </si>
   <si>
     <t>Total (exkl. Test)</t>
+  </si>
+  <si>
+    <t>47h</t>
+  </si>
+  <si>
+    <t>55h</t>
   </si>
 </sst>
 </file>
@@ -908,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -931,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -940,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -957,25 +951,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="112">
@@ -983,21 +974,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42">
@@ -1005,52 +998,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="73" customHeight="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1067,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1092,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1101,22 +1074,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1130,16 +1103,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1154,10 +1127,10 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1168,16 +1141,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1192,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1203,16 +1176,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1227,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1238,16 +1211,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1262,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28">
@@ -1273,16 +1246,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1297,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28">
@@ -1308,16 +1281,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1332,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1343,16 +1316,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1367,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1378,16 +1351,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -1402,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L9" s="9">
         <f>SUM(J2+J3+J4+J5+J6+J7)</f>
@@ -1419,7 +1392,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1432,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1456,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1467,16 +1440,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1491,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28">
@@ -1502,16 +1475,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1526,7 +1499,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1537,16 +1510,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1561,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="42">
@@ -1572,16 +1545,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
         <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1596,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1607,16 +1580,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1631,7 +1604,7 @@
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28">
@@ -1642,16 +1615,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
         <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1666,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1677,16 +1650,16 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -1701,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1712,16 +1685,16 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -1736,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L19" s="9">
         <f>SUM(J11+J12+J13+J14+J15+J16+J17)</f>
@@ -1764,16 +1737,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -1785,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="28">
@@ -1796,16 +1769,16 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -1817,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28">
@@ -1828,16 +1801,16 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -1849,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28">
@@ -1860,16 +1833,16 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
         <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -1881,7 +1854,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28">
@@ -1892,16 +1865,16 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -1913,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1924,16 +1897,16 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -1945,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1956,16 +1929,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -1977,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +1993,7 @@
   <dimension ref="C2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2030,24 +2003,24 @@
   <sheetData>
     <row r="2" spans="3:15">
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="3:15">
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
       <c r="K3">
         <v>8.75</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="3:15">
@@ -2055,21 +2028,21 @@
         <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="3:15">
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:15">
@@ -2077,20 +2050,20 @@
         <v>1.75</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="3:15">
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="3:15">
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>240</v>
@@ -2098,7 +2071,7 @@
     </row>
     <row r="16" spans="3:15">
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>280</v>
@@ -2106,7 +2079,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>40</v>

--- a/ch.bfh.btx8081.w2013.blue/doc/task09and10/task9&10_v2.0.2.xlsx
+++ b/ch.bfh.btx8081.w2013.blue/doc/task09and10/task9&10_v2.0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="680" windowWidth="28560" windowHeight="14920"/>
+    <workbookView xWindow="2260" yWindow="360" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Event interface for further classes.</t>
   </si>
   <si>
-    <t>started</t>
-  </si>
-  <si>
     <t>GUI (index,alert)</t>
   </si>
   <si>
@@ -312,13 +309,22 @@
   </si>
   <si>
     <t>55h</t>
+  </si>
+  <si>
+    <t>von externer Quelle</t>
+  </si>
+  <si>
+    <t>not to be implemented</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +356,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +383,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -380,7 +399,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -434,8 +453,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -460,8 +481,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -488,6 +510,7 @@
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -514,6 +537,7 @@
     <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -904,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -963,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>22</v>
@@ -986,7 +1010,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
@@ -1040,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1056,7 +1080,7 @@
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1106,7 +1130,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -1130,7 +1154,7 @@
         <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1176,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>73</v>
@@ -1281,10 +1305,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1319,7 +1343,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1340,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1354,7 +1378,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1375,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="L9" s="9">
         <f>SUM(J2+J3+J4+J5+J6+J7)</f>
@@ -1392,7 +1416,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1440,10 +1464,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -1510,10 +1534,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
@@ -1580,16 +1604,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1674,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1688,7 +1712,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -1709,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="L19" s="9">
         <f>SUM(J11+J12+J13+J14+J15+J16+J17)</f>
@@ -1740,7 +1764,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>47</v>
@@ -1758,7 +1782,7 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="28">
@@ -1790,7 +1814,7 @@
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28">
@@ -1821,8 +1845,8 @@
       <c r="I23">
         <v>6</v>
       </c>
-      <c r="K23" t="s">
-        <v>22</v>
+      <c r="K23" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28">
@@ -1836,7 +1860,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>47</v>
@@ -1854,7 +1878,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28">
@@ -1868,7 +1892,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -1885,8 +1909,8 @@
       <c r="I25">
         <v>2</v>
       </c>
-      <c r="K25" t="s">
-        <v>22</v>
+      <c r="K25" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1900,7 +1924,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1918,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1932,7 +1956,7 @@
         <v>45</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1950,31 +1974,31 @@
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K15:K19 K21:K27 K2:K12">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="not started">
+  <conditionalFormatting sqref="K15:K19 K2:K12 K21:K27">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="not started">
       <formula>NOT(ISERROR(SEARCH("not started",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="finished">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="finished">
       <formula>NOT(ISERROR(SEARCH("finished",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K14">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="not started">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="not started">
       <formula>NOT(ISERROR(SEARCH("not started",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="finished">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="finished">
       <formula>NOT(ISERROR(SEARCH("finished",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="not started">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="not started">
       <formula>NOT(ISERROR(SEARCH("not started",K20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="finished">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="finished">
       <formula>NOT(ISERROR(SEARCH("finished",K20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1993,7 +2017,7 @@
   <dimension ref="C2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/ch.bfh.btx8081.w2013.blue/doc/task09and10/task9&10_v2.0.2.xlsx
+++ b/ch.bfh.btx8081.w2013.blue/doc/task09and10/task9&10_v2.0.2.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="360" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="5430" windowHeight="5475"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="time schedule (quick and dirty)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <oleSize ref="A1:P4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -89,9 +90,6 @@
     <t>80h</t>
   </si>
   <si>
-    <t>not started</t>
-  </si>
-  <si>
     <t>7 Wochen / Sprint</t>
   </si>
   <si>
@@ -317,7 +315,10 @@
     <t>not to be implemented</t>
   </si>
   <si>
-    <t>pending</t>
+    <t>45h</t>
+  </si>
+  <si>
+    <t>60h</t>
   </si>
 </sst>
 </file>
@@ -484,85 +485,63 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="55">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="1"/>
@@ -928,23 +907,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -970,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="135" customHeight="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -978,7 +957,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -987,13 +966,16 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="112">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1001,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -1010,14 +992,16 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="42">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1025,7 +1009,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1033,13 +1017,17 @@
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -1064,27 +1052,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1127,16 +1115,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1151,13 +1139,13 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1165,16 +1153,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1189,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1200,16 +1188,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1224,10 +1212,10 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1235,16 +1223,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1259,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1270,16 +1258,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1294,10 +1282,10 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1305,16 +1293,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1329,10 +1317,10 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -1340,16 +1328,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1364,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.8</v>
       </c>
@@ -1375,16 +1363,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -1399,14 +1387,14 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="L9" s="9">
         <f>SUM(J2+J3+J4+J5+J6+J7)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="6" customHeight="1">
+    <row r="10" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1416,12 +1404,12 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="28">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.1</v>
       </c>
@@ -1429,16 +1417,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1453,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.2000000000000002</v>
       </c>
@@ -1464,16 +1452,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1488,10 +1476,10 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.2999999999999998</v>
       </c>
@@ -1499,16 +1487,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1523,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.4</v>
       </c>
@@ -1534,16 +1522,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1558,10 +1546,10 @@
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="42">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.5</v>
       </c>
@@ -1569,16 +1557,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1593,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.6</v>
       </c>
@@ -1604,16 +1592,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
         <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>92</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1628,10 +1616,10 @@
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.7</v>
       </c>
@@ -1639,16 +1627,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1663,10 +1651,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.8</v>
       </c>
@@ -1674,16 +1662,16 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -1698,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.9</v>
       </c>
@@ -1709,16 +1697,16 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -1733,14 +1721,14 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="L19" s="9">
         <f>SUM(J11+J12+J13+J14+J15+J16+J17)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="6" customHeight="1">
+    <row r="20" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1753,7 +1741,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="28">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.1</v>
       </c>
@@ -1761,16 +1749,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -1782,10 +1770,10 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3.2</v>
       </c>
@@ -1793,16 +1781,16 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -1814,10 +1802,10 @@
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.3</v>
       </c>
@@ -1825,16 +1813,16 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -1846,10 +1834,10 @@
         <v>6</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.4</v>
       </c>
@@ -1857,16 +1845,16 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -1878,10 +1866,10 @@
         <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.5</v>
       </c>
@@ -1889,16 +1877,16 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -1910,10 +1898,10 @@
         <v>2</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.6</v>
       </c>
@@ -1921,16 +1909,16 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -1942,10 +1930,10 @@
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.7</v>
       </c>
@@ -1953,16 +1941,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -1974,31 +1962,31 @@
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K15:K19 K2:K12 K21:K27">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="not started">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="not started">
       <formula>NOT(ISERROR(SEARCH("not started",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="finished">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="finished">
       <formula>NOT(ISERROR(SEARCH("finished",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K14">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="not started">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="not started">
       <formula>NOT(ISERROR(SEARCH("not started",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="finished">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="finished">
       <formula>NOT(ISERROR(SEARCH("finished",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="not started">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="not started">
       <formula>NOT(ISERROR(SEARCH("not started",K20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="finished">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="finished">
       <formula>NOT(ISERROR(SEARCH("finished",K20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2020,90 +2008,90 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="3:15">
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
       </c>
       <c r="K3">
         <v>8.75</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="3:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K4">
         <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K6">
         <v>1.75</v>
       </c>
       <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="3:15">
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>40</v>
